--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Type</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Map Name</t>
-  </si>
-  <si>
-    <t>Monsters</t>
-  </si>
-  <si>
-    <t>Mobs Count</t>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>MobsCount</t>
+  </si>
+  <si>
+    <t>MinimapMargin</t>
   </si>
   <si>
     <t>Sacred</t>
@@ -73,6 +76,12 @@
     <t>Disintegrating Test Subject</t>
   </si>
   <si>
+    <t>Odium: Road to the Castle's Gate 1</t>
+  </si>
+  <si>
+    <t>Enhanced Diamond Guardian</t>
+  </si>
+  <si>
     <t>Hotel Arcus</t>
   </si>
   <si>
@@ -110,6 +119,15 @@
   </si>
   <si>
     <t>End of the World 1-7</t>
+  </si>
+  <si>
+    <t>Reverse City</t>
+  </si>
+  <si>
+    <t>T-Boy's Research Train 1</t>
+  </si>
+  <si>
+    <t>Seeker T-Drone Model A</t>
   </si>
 </sst>
 </file>
@@ -117,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -158,14 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -181,17 +191,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,97 +284,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,79 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,42 +550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,72 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +633,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -620,6 +655,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,177 +682,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +890,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,6 +909,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1200,21 +1233,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.1826923076923" customWidth="1"/>
     <col min="3" max="3" width="52.3942307692308" customWidth="1"/>
     <col min="4" max="4" width="28.1923076923077" customWidth="1"/>
     <col min="5" max="5" width="16.8269230769231" customWidth="1"/>
+    <col min="6" max="6" width="18.7403846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,175 +1264,248 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21">
+        <v>40</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21">
         <v>40</v>
       </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
         <v>39</v>
       </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22">
+        <v>40</v>
+      </c>
+      <c r="F5" s="22">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="20">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="23">
+        <v>34</v>
+      </c>
+      <c r="F6" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="23">
         <v>34</v>
       </c>
+      <c r="F7" s="23">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="24">
+        <v>33</v>
+      </c>
+      <c r="F10" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="25">
+        <v>34</v>
+      </c>
+      <c r="F11" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="25">
+        <v>34</v>
+      </c>
+      <c r="F12" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="26">
+        <v>27</v>
+      </c>
+      <c r="F13" s="26">
         <v>20</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="23">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>End of the World 1-7</t>
+  </si>
+  <si>
+    <t>Moonbridge</t>
+  </si>
+  <si>
+    <t>Void Current 1</t>
+  </si>
+  <si>
+    <t>Crushing Glare</t>
   </si>
   <si>
     <t>Reverse City</t>
@@ -313,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +375,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -687,76 +702,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -765,74 +780,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +911,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,7 +932,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1281,10 +1308,10 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="23">
         <v>40</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1301,10 +1328,10 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="23">
         <v>40</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1341,10 +1368,10 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="24">
         <v>40</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="24">
         <v>14</v>
       </c>
     </row>
@@ -1361,10 +1388,10 @@
       <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <v>34</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="25">
         <v>45</v>
       </c>
     </row>
@@ -1381,10 +1408,10 @@
       <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="25">
         <v>34</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="25">
         <v>28</v>
       </c>
     </row>
@@ -1441,10 +1468,10 @@
       <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="26">
         <v>33</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="26">
         <v>45</v>
       </c>
     </row>
@@ -1461,10 +1488,10 @@
       <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <v>34</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="27">
         <v>11</v>
       </c>
     </row>
@@ -1481,10 +1508,10 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="27">
         <v>34</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="27">
         <v>11</v>
       </c>
     </row>
@@ -1501,10 +1528,30 @@
       <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="28">
+        <v>35</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="30">
         <v>27</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F14" s="30">
         <v>20</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14140"/>
+    <workbookView windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,12 +155,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -178,17 +191,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,32 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,20 +279,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -262,61 +314,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,31 +404,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,151 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -619,16 +647,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,41 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,153 +690,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,6 +879,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,12 +894,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,44 +921,35 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,54 +957,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1263,16 +1276,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1826923076923" customWidth="1"/>
-    <col min="3" max="3" width="52.3942307692308" customWidth="1"/>
-    <col min="4" max="4" width="28.1923076923077" customWidth="1"/>
-    <col min="5" max="5" width="16.8269230769231" customWidth="1"/>
-    <col min="6" max="6" width="18.7403846153846" customWidth="1"/>
+    <col min="2" max="2" width="16.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="52.3916666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.1916666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.825" customWidth="1"/>
+    <col min="6" max="6" width="18.7416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1308,10 +1321,10 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="6">
         <v>40</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1328,224 +1341,224 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="6">
         <v>40</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>39</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="11">
         <v>40</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="14">
         <v>34</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="14">
         <v>34</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="14">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>34</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>34</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>33</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="23">
         <v>34</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="23">
         <v>34</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>35</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
+      <c r="F13" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="30">

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Seeker T-Drone Model A</t>
+  </si>
+  <si>
+    <t>End of the World 2-5</t>
+  </si>
+  <si>
+    <t>Embrion</t>
   </si>
 </sst>
 </file>
@@ -860,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +958,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,10 +1282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1568,6 +1577,46 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="31">
+        <v>35</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="31">
+        <v>35</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -119,12 +119,27 @@
     <t>Flora Foot Soldier</t>
   </si>
   <si>
+    <t>Cernium</t>
+  </si>
+  <si>
+    <t>Royal Library Section 4</t>
+  </si>
+  <si>
+    <t>Curious Scholar Ghost</t>
+  </si>
+  <si>
     <t>Arcane</t>
   </si>
   <si>
     <t>Limina</t>
   </si>
   <si>
+    <t>End of the World 2-5</t>
+  </si>
+  <si>
+    <t>Embrion</t>
+  </si>
+  <si>
     <t>End of the World 1-6</t>
   </si>
   <si>
@@ -150,12 +165,6 @@
   </si>
   <si>
     <t>Seeker T-Drone Model A</t>
-  </si>
-  <si>
-    <t>End of the World 2-5</t>
-  </si>
-  <si>
-    <t>Embrion</t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +397,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -742,7 +757,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,16 +781,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -784,89 +799,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +951,9 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,10 +975,19 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1285,7 +1312,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1499,122 +1526,122 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="23">
         <v>34</v>
       </c>
-      <c r="F11" s="23">
-        <v>11</v>
+      <c r="F11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="23">
-        <v>34</v>
-      </c>
-      <c r="F12" s="23">
-        <v>11</v>
+      <c r="C12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="27">
+        <v>35</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="28">
         <v>35</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="26">
-        <v>35</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1</v>
+      <c r="F13" s="28">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="30">
-        <v>27</v>
-      </c>
-      <c r="F14" s="30">
-        <v>20</v>
+      <c r="E14" s="28">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="31">
         <v>35</v>
       </c>
-      <c r="F15" s="23">
-        <v>0</v>
+      <c r="F15" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="A16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="31">
-        <v>35</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
+      <c r="B16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="35">
+        <v>27</v>
+      </c>
+      <c r="F16" s="35">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="24">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1501,7 +1501,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="15">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14140"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -98,6 +111,9 @@
   </si>
   <si>
     <t>Conductorbot</t>
+  </si>
+  <si>
+    <t>Train with No Destination 1</t>
   </si>
   <si>
     <t>Outlaw-Infested Wastes 2</t>
@@ -166,12 +182,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,10 +218,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +258,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -226,38 +282,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,59 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,9 +327,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,19 +437,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,163 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,24 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF666666"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,17 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -727,153 +708,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,12 +906,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,12 +930,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,71 +951,59 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,54 +1014,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1314,20 +1330,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.1826923076923" customWidth="1"/>
-    <col min="3" max="3" width="52.3942307692308" customWidth="1"/>
-    <col min="4" max="4" width="28.1923076923077" customWidth="1"/>
-    <col min="5" max="5" width="16.8269230769231" customWidth="1"/>
-    <col min="6" max="6" width="18.7403846153846" customWidth="1"/>
-    <col min="7" max="7" width="16.8269230769231" customWidth="1"/>
+    <col min="2" max="2" width="16.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="52.3916666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.1916666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.825" customWidth="1"/>
+    <col min="6" max="6" width="18.7416666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.825" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1349,375 +1365,398 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="7">
         <v>40</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="7">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="7">
         <v>40</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="7">
         <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>39</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="12">
         <v>40</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="12">
         <v>14</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="12">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="15">
         <v>34</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="15">
         <v>45</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="15">
         <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="15">
         <v>34</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="15">
         <v>28</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="15">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>34</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>31</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="19">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="19">
         <v>38</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
         <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19">
         <v>34</v>
       </c>
-      <c r="F10" s="12">
-        <v>13</v>
-      </c>
-      <c r="G10" s="29">
-        <v>265</v>
+      <c r="F10" s="16">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="30">
-        <v>33</v>
-      </c>
-      <c r="F11" s="30">
-        <v>45</v>
-      </c>
-      <c r="G11" s="30">
-        <v>262</v>
+      <c r="E11" s="17">
+        <v>34</v>
+      </c>
+      <c r="F11" s="16">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19">
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="31">
-        <v>34</v>
-      </c>
-      <c r="F12" s="32">
-        <v>14</v>
-      </c>
-      <c r="G12" s="31">
-        <v>261</v>
+      <c r="E12" s="22">
+        <v>33</v>
+      </c>
+      <c r="F12" s="22">
+        <v>45</v>
+      </c>
+      <c r="G12" s="22">
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="33">
-        <v>35</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33">
-        <v>264</v>
+      <c r="E13" s="25">
+        <v>34</v>
+      </c>
+      <c r="F13" s="26">
+        <v>14</v>
+      </c>
+      <c r="G13" s="25">
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="E14" s="29">
         <v>35</v>
       </c>
-      <c r="F14" s="34">
-        <v>11</v>
-      </c>
-      <c r="G14" s="33">
-        <v>263</v>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="34">
-        <v>34</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="30">
+        <v>35</v>
+      </c>
+      <c r="F15" s="30">
         <v>11</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="35">
-        <v>35</v>
-      </c>
-      <c r="F16" s="36">
-        <v>1</v>
-      </c>
-      <c r="G16" s="35">
-        <v>254</v>
+      <c r="D16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="30">
+        <v>34</v>
+      </c>
+      <c r="F16" s="30">
+        <v>11</v>
+      </c>
+      <c r="G16" s="29">
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="E17" s="33">
+        <v>35</v>
+      </c>
+      <c r="F17" s="34">
+        <v>1</v>
+      </c>
+      <c r="G17" s="33">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="C18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="37">
+      <c r="D18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="37">
         <v>27</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F18" s="37">
         <v>20</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G18" s="38">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1501,7 +1501,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="15">
         <v>270</v>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Disintegrating Test Subject</t>
+  </si>
+  <si>
+    <t>Captured Alley 1</t>
+  </si>
+  <si>
+    <t>Angler Robot Type A</t>
   </si>
   <si>
     <t>Road to the Castle's Gate 1</t>
@@ -893,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,6 +946,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1497,266 +1506,289 @@
       <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>34</v>
       </c>
       <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15">
+      <c r="E8" s="15">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16">
+      <c r="C9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17">
         <v>34</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="17">
         <v>31</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G9" s="20">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20">
         <v>38</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G10" s="20">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20">
         <v>34</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="17">
         <v>31</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G11" s="20">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="18">
         <v>34</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="17">
         <v>13</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="20">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="20" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22">
+      <c r="C13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="23">
         <v>33</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="23">
         <v>45</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="23">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26">
         <v>34</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="25">
-        <v>34</v>
-      </c>
-      <c r="F13" s="26">
+      <c r="F14" s="27">
         <v>14</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G14" s="26">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="28" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="29">
-        <v>35</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="30">
         <v>35</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="31">
+        <v>35</v>
+      </c>
+      <c r="F16" s="31">
         <v>11</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G16" s="30">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="30">
+    <row r="17" spans="1:7">
+      <c r="A17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="31">
         <v>34</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F17" s="31">
         <v>11</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G17" s="30">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="32" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="33">
+      <c r="C18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="34">
         <v>35</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F18" s="35">
         <v>1</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G18" s="34">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="36" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="37">
+      <c r="C19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="38">
         <v>27</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F19" s="38">
         <v>20</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G19" s="39">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Disintegrating Test Subject</t>
+  </si>
+  <si>
+    <t>Sunny Laboratory 1</t>
+  </si>
+  <si>
+    <t>Guard Corundum</t>
   </si>
   <si>
     <t>Captured Alley 1</t>
@@ -1339,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1510,10 +1516,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="15">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1529,45 +1535,45 @@
       <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>34</v>
       </c>
       <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15">
         <v>24</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="15">
         <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="17">
-        <v>34</v>
-      </c>
-      <c r="F9" s="17">
-        <v>31</v>
-      </c>
-      <c r="G9" s="20">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>25</v>
+      <c r="B10" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>28</v>
@@ -1575,14 +1581,14 @@
       <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20">
-        <v>38</v>
+      <c r="E10" s="17">
+        <v>34</v>
       </c>
       <c r="F10" s="17">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G10" s="20">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1590,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11" s="17">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20">
         <v>268</v>
@@ -1613,99 +1619,99 @@
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="E12" s="20">
         <v>34</v>
       </c>
       <c r="F12" s="17">
+        <v>31</v>
+      </c>
+      <c r="G12" s="20">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="18">
+        <v>34</v>
+      </c>
+      <c r="F13" s="17">
         <v>13</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="20">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="23">
         <v>33</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="F14" s="23">
+        <v>45</v>
+      </c>
+      <c r="G14" s="23">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="26">
         <v>34</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="23">
-        <v>33</v>
-      </c>
-      <c r="F13" s="23">
-        <v>45</v>
-      </c>
-      <c r="G13" s="23">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="26">
-        <v>34</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="F15" s="27">
         <v>14</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G15" s="26">
         <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="30">
-        <v>35</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>43</v>
@@ -1713,31 +1719,31 @@
       <c r="D16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>35</v>
       </c>
       <c r="F16" s="31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16" s="30">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="31">
         <v>11</v>
@@ -1747,48 +1753,71 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="31">
+        <v>34</v>
+      </c>
+      <c r="F18" s="31">
+        <v>11</v>
+      </c>
+      <c r="G18" s="30">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="34">
+      <c r="C19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="34">
         <v>35</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F19" s="35">
         <v>1</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G19" s="34">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="37" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="38">
+      <c r="C20" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="38">
         <v>27</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F20" s="38">
         <v>20</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G20" s="39">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1493,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="15">
         <v>273</v>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Ink-Winged Owl</t>
+  </si>
+  <si>
+    <t>Blooming Spring 2</t>
+  </si>
+  <si>
+    <t>Withered Spring Researche</t>
   </si>
   <si>
     <t>Arteria</t>
@@ -1345,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1454,49 +1460,49 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="8">
+        <v>39</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12">
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>14</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="15">
-        <v>34</v>
-      </c>
-      <c r="F6" s="15">
-        <v>44</v>
-      </c>
-      <c r="G6" s="15">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1504,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>21</v>
@@ -1512,14 +1518,14 @@
       <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>34</v>
       </c>
       <c r="F7" s="15">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G7" s="15">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1527,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>23</v>
@@ -1539,10 +1545,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="15">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1550,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>25</v>
@@ -1558,45 +1564,45 @@
       <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>34</v>
       </c>
       <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15">
         <v>24</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17">
-        <v>34</v>
-      </c>
-      <c r="F10" s="17">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
+      <c r="B11" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>30</v>
@@ -1604,14 +1610,14 @@
       <c r="D11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="20">
-        <v>38</v>
+      <c r="E11" s="17">
+        <v>34</v>
       </c>
       <c r="F11" s="17">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G11" s="20">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1619,19 +1625,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12" s="17">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G12" s="20">
         <v>268</v>
@@ -1642,99 +1648,99 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="20">
         <v>34</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="17">
+        <v>31</v>
+      </c>
+      <c r="G13" s="20">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18">
         <v>34</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>13</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="20">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="23">
+      <c r="C15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="23">
         <v>33</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F15" s="23">
         <v>45</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G15" s="23">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="24" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="26">
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="26">
         <v>34</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F16" s="27">
         <v>14</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G16" s="26">
         <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="30">
-        <v>35</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>45</v>
@@ -1742,31 +1748,31 @@
       <c r="D17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>35</v>
       </c>
       <c r="F17" s="31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17" s="30">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="31">
         <v>11</v>
@@ -1776,48 +1782,71 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="E19" s="31">
+        <v>34</v>
+      </c>
+      <c r="F19" s="31">
+        <v>11</v>
+      </c>
+      <c r="G19" s="30">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="34">
+      <c r="C20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="34">
         <v>35</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F20" s="35">
         <v>1</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G20" s="34">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="37" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="38">
+      <c r="C21" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="38">
         <v>27</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F21" s="38">
         <v>20</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G21" s="39">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>Blooming Spring 2</t>
   </si>
   <si>
-    <t>Withered Spring Researche</t>
+    <t>Withered Spring Researche,Ink-Shaded Butterfly</t>
   </si>
   <si>
     <t>Arteria</t>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Average Level</t>
+  </si>
+  <si>
+    <t>Portals</t>
   </si>
   <si>
     <t>Sacred</t>
@@ -207,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -781,137 +790,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1040,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1351,13 +1363,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.1833333333333" customWidth="1"/>
     <col min="3" max="3" width="52.3916666666667" customWidth="1"/>
@@ -1365,9 +1377,10 @@
     <col min="5" max="5" width="16.825" customWidth="1"/>
     <col min="6" max="6" width="18.7416666666667" customWidth="1"/>
     <col min="7" max="7" width="16.825" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,19 +1402,23 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7">
         <v>40</v>
@@ -1415,16 +1432,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>40</v>
@@ -1438,16 +1455,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8">
         <v>39</v>
@@ -1461,16 +1478,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8">
         <v>39</v>
@@ -1484,16 +1501,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12">
         <v>40</v>
@@ -1507,16 +1524,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="15">
         <v>34</v>
@@ -1530,16 +1547,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="16">
         <v>34</v>
@@ -1553,16 +1570,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16">
         <v>34</v>
@@ -1576,16 +1593,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="15">
         <v>34</v>
@@ -1599,16 +1616,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="17">
         <v>34</v>
@@ -1622,16 +1639,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="20">
         <v>38</v>
@@ -1645,16 +1662,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="20">
         <v>34</v>
@@ -1668,16 +1685,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="18">
         <v>34</v>
@@ -1691,16 +1708,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="23">
         <v>33</v>
@@ -1714,16 +1731,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="26">
         <v>34</v>
@@ -1737,16 +1754,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="30">
         <v>35</v>
@@ -1760,16 +1777,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="31">
         <v>35</v>
@@ -1783,16 +1800,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="31">
         <v>34</v>
@@ -1806,16 +1823,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="34">
         <v>35</v>
@@ -1829,16 +1846,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="38">
         <v>27</v>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Ink-Winged Owl</t>
+  </si>
+  <si>
+    <t>Gentle Summer 3</t>
+  </si>
+  <si>
+    <t>Ink-Shaded Red-Crowned Crane</t>
   </si>
   <si>
     <t>Blooming Spring 2</t>
@@ -1363,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1496,53 +1502,53 @@
         <v>1</v>
       </c>
       <c r="G5" s="8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12">
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
         <v>40</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>14</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="15">
-        <v>34</v>
-      </c>
-      <c r="F7" s="15">
-        <v>44</v>
-      </c>
-      <c r="G7" s="15">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1550,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>24</v>
@@ -1558,14 +1564,14 @@
       <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>34</v>
       </c>
       <c r="F8" s="15">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1573,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>26</v>
@@ -1585,10 +1591,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="15">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1596,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>28</v>
@@ -1604,45 +1610,45 @@
       <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>34</v>
       </c>
       <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="15">
+        <v>34</v>
+      </c>
+      <c r="F11" s="15">
         <v>24</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="15">
         <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17">
-        <v>34</v>
-      </c>
-      <c r="F11" s="17">
-        <v>31</v>
-      </c>
-      <c r="G11" s="20">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>30</v>
+      <c r="B12" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>33</v>
@@ -1650,14 +1656,14 @@
       <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="20">
-        <v>38</v>
+      <c r="E12" s="17">
+        <v>34</v>
       </c>
       <c r="F12" s="17">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G12" s="20">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1665,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" s="17">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20">
         <v>268</v>
@@ -1688,99 +1694,99 @@
         <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="E14" s="20">
         <v>34</v>
       </c>
       <c r="F14" s="17">
+        <v>31</v>
+      </c>
+      <c r="G14" s="20">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="18">
+        <v>34</v>
+      </c>
+      <c r="F15" s="17">
         <v>13</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G15" s="20">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23">
+      <c r="C16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="23">
         <v>33</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F16" s="23">
         <v>45</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G16" s="23">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="26">
+      <c r="C17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="26">
         <v>34</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F17" s="27">
         <v>14</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G17" s="26">
         <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="30">
-        <v>35</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>48</v>
@@ -1788,31 +1794,31 @@
       <c r="D18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>35</v>
       </c>
       <c r="F18" s="31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G18" s="30">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="31">
         <v>11</v>
@@ -1822,48 +1828,71 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="33" t="s">
+      <c r="E20" s="31">
+        <v>34</v>
+      </c>
+      <c r="F20" s="31">
+        <v>11</v>
+      </c>
+      <c r="G20" s="30">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="34">
+      <c r="C21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="34">
         <v>35</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F21" s="35">
         <v>1</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G21" s="34">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="37" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="38">
+      <c r="C22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="38">
         <v>27</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F22" s="38">
         <v>20</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G22" s="39">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Type</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Burning Cernium</t>
+  </si>
+  <si>
+    <t>Eastern City Ramparts in Battle 3</t>
+  </si>
+  <si>
+    <t>Flora Assassin</t>
   </si>
   <si>
     <t>Western City Ramparts in Battle 1</t>
@@ -440,6 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -460,12 +472,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
         <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -996,6 +1002,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,9 +1014,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,10 +1047,10 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1369,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1749,150 +1755,173 @@
         <v>42</v>
       </c>
       <c r="E16" s="23">
+        <v>39</v>
+      </c>
+      <c r="F16" s="24">
+        <v>21</v>
+      </c>
+      <c r="G16" s="24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="27">
         <v>33</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F17" s="27">
         <v>45</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G17" s="27">
         <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="26">
-        <v>34</v>
-      </c>
-      <c r="F17" s="27">
-        <v>14</v>
-      </c>
-      <c r="G17" s="26">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="D18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="E18" s="30">
+        <v>34</v>
+      </c>
+      <c r="F18" s="31">
+        <v>14</v>
+      </c>
+      <c r="G18" s="30">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="30">
+      <c r="C19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="34">
         <v>35</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F19" s="35">
         <v>0</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G19" s="34">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="31">
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="35">
         <v>35</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F20" s="35">
         <v>11</v>
       </c>
-      <c r="G19" s="30">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="31">
-        <v>34</v>
-      </c>
-      <c r="F20" s="31">
-        <v>11</v>
-      </c>
-      <c r="G20" s="30">
+      <c r="G20" s="34">
         <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="34">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="35">
+        <v>34</v>
       </c>
       <c r="F21" s="35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G21" s="34">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="E22" s="38">
+        <v>35</v>
+      </c>
+      <c r="F22" s="39">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="38">
+      <c r="C23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="24">
         <v>27</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F23" s="24">
         <v>20</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G23" s="23">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>High Flora Foot Soldier</t>
+  </si>
+  <si>
+    <t>Western Outskirts</t>
   </si>
   <si>
     <t>Odium</t>
@@ -932,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +973,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1417,7 +1423,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
@@ -1558,370 +1564,393 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13">
+        <v>39</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15">
-        <v>44</v>
-      </c>
-      <c r="G8" s="15">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="16">
         <v>34</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
+        <v>44</v>
+      </c>
+      <c r="G9" s="16">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="16">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="16">
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17">
         <v>34</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="16">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="15">
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16">
         <v>34</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="16">
         <v>24</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="16">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="17">
+      <c r="D13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="18">
         <v>34</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="18">
         <v>31</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="21">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="B14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="20">
+      <c r="D14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="21">
         <v>38</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="21">
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="E15" s="21">
         <v>34</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="18">
         <v>31</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G15" s="21">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="18">
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19">
         <v>34</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="18">
         <v>13</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G16" s="21">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="23">
+      <c r="D17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="24">
         <v>39</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F17" s="25">
         <v>21</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G17" s="25">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="25" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="B18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="27">
+      <c r="D18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="28">
         <v>33</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="28">
         <v>45</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G18" s="28">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="30">
+      <c r="D19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="31">
         <v>34</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F19" s="32">
         <v>14</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G19" s="31">
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="32" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="B20" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="34">
-        <v>35</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="35">
         <v>35</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="36">
+        <v>35</v>
+      </c>
+      <c r="F21" s="36">
         <v>11</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G21" s="35">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="32" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="B22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="35">
+      <c r="E22" s="36">
         <v>34</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F22" s="36">
         <v>11</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G22" s="35">
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="37" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="38">
+      <c r="D23" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="39">
         <v>35</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F23" s="40">
         <v>1</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G23" s="39">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="22" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="24">
+      <c r="D24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="25">
         <v>27</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F24" s="25">
         <v>20</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G24" s="24">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Arteria</t>
+  </si>
+  <si>
+    <t>Eastern Outskirts</t>
+  </si>
+  <si>
+    <t>High Flora Magician</t>
   </si>
   <si>
     <t>Combat Zone Outskirts 1</t>
@@ -935,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,9 +979,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1423,7 +1432,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
@@ -1550,17 +1559,17 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12">
-        <v>40</v>
-      </c>
-      <c r="F7" s="12">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12">
-        <v>280</v>
+      <c r="E7" s="13">
+        <v>39</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1574,383 +1583,406 @@
         <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="13">
         <v>39</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
-        <v>44</v>
-      </c>
-      <c r="G9" s="16">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="17">
         <v>34</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="17">
+        <v>44</v>
+      </c>
+      <c r="G10" s="17">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="18">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="17">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="18">
+        <v>34</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17">
+        <v>34</v>
+      </c>
+      <c r="F13" s="17">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="G13" s="17">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19">
         <v>34</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F14" s="19">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="16">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
+      <c r="G15" s="22">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="22">
+        <v>34</v>
+      </c>
+      <c r="F16" s="19">
         <v>31</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="G16" s="22">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="20">
         <v>34</v>
       </c>
-      <c r="F12" s="16">
-        <v>24</v>
-      </c>
-      <c r="G12" s="16">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="F17" s="19">
+        <v>13</v>
+      </c>
+      <c r="G17" s="22">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="25">
+        <v>39</v>
+      </c>
+      <c r="F18" s="26">
+        <v>21</v>
+      </c>
+      <c r="G18" s="26">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="29">
         <v>33</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="F19" s="29">
+        <v>45</v>
+      </c>
+      <c r="G19" s="29">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="32">
         <v>34</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="18">
-        <v>34</v>
-      </c>
-      <c r="F13" s="18">
-        <v>31</v>
-      </c>
-      <c r="G13" s="21">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="21">
-        <v>38</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="21">
-        <v>34</v>
-      </c>
-      <c r="F15" s="18">
-        <v>31</v>
-      </c>
-      <c r="G15" s="21">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="19">
-        <v>34</v>
-      </c>
-      <c r="F16" s="18">
-        <v>13</v>
-      </c>
-      <c r="G16" s="21">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="24">
-        <v>39</v>
-      </c>
-      <c r="F17" s="25">
-        <v>21</v>
-      </c>
-      <c r="G17" s="25">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="28">
-        <v>33</v>
-      </c>
-      <c r="F18" s="28">
-        <v>45</v>
-      </c>
-      <c r="G18" s="28">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="31">
-        <v>34</v>
-      </c>
-      <c r="F19" s="32">
+      <c r="F20" s="33">
         <v>14</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G20" s="32">
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="34" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="B21" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="35">
-        <v>35</v>
-      </c>
-      <c r="F20" s="36">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="36">
         <v>35</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="36">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="37">
+        <v>35</v>
+      </c>
+      <c r="F22" s="37">
         <v>11</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G22" s="36">
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="36">
+    <row r="23" spans="1:7">
+      <c r="A23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="37">
         <v>34</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F23" s="37">
         <v>11</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G23" s="36">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="38" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="39">
+      <c r="C24" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="40">
         <v>35</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F24" s="41">
         <v>1</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G24" s="40">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="23" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="25">
+      <c r="C25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="26">
         <v>27</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="26">
         <v>20</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G25" s="25">
         <v>205</v>
       </c>
     </row>

--- a/resources/maps/maplestory_maps.xlsx
+++ b/resources/maps/maplestory_maps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Arteria</t>
+  </si>
+  <si>
+    <t>Bottom Deck Passage 3</t>
+  </si>
+  <si>
+    <t>High Flora Armored Soldier</t>
   </si>
   <si>
     <t>Eastern Outskirts</t>
@@ -978,14 +984,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,10 +1396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1559,17 +1565,17 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>39</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>281</v>
+      <c r="G7" s="12">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,17 +1588,17 @@
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="14">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14">
-        <v>280</v>
+      <c r="E8" s="12">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1606,39 +1612,39 @@
         <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="13">
-        <v>39</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="13">
+        <v>14</v>
       </c>
       <c r="G9" s="13">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17">
-        <v>34</v>
-      </c>
-      <c r="F10" s="17">
-        <v>44</v>
-      </c>
-      <c r="G10" s="17">
-        <v>273</v>
+      <c r="E10" s="12">
+        <v>39</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1646,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>29</v>
@@ -1654,14 +1660,14 @@
       <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>34</v>
       </c>
       <c r="F11" s="17">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1669,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>31</v>
@@ -1681,10 +1687,10 @@
         <v>34</v>
       </c>
       <c r="F12" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="17">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1692,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>33</v>
@@ -1700,45 +1706,45 @@
       <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <v>34</v>
       </c>
       <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="17">
+        <v>34</v>
+      </c>
+      <c r="F14" s="17">
         <v>24</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="19">
-        <v>34</v>
-      </c>
-      <c r="F14" s="19">
-        <v>31</v>
-      </c>
-      <c r="G14" s="22">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>35</v>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>38</v>
@@ -1746,14 +1752,14 @@
       <c r="D15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="22">
-        <v>38</v>
+      <c r="E15" s="19">
+        <v>34</v>
       </c>
       <c r="F15" s="19">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G15" s="22">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1761,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="22">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F16" s="19">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G16" s="22">
         <v>268</v>
@@ -1784,122 +1790,122 @@
         <v>8</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="E17" s="22">
         <v>34</v>
       </c>
       <c r="F17" s="19">
+        <v>31</v>
+      </c>
+      <c r="G17" s="22">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="20">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19">
         <v>13</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G18" s="22">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25">
+      <c r="C19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="25">
         <v>39</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F19" s="26">
         <v>21</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="27" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="B20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="29">
         <v>33</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F20" s="29">
         <v>45</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G20" s="29">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="30" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="32">
+      <c r="C21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="32">
         <v>34</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F21" s="33">
         <v>14</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G21" s="32">
         <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="36">
-        <v>35</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0</v>
-      </c>
-      <c r="G21" s="36">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>55</v>
@@ -1907,31 +1913,31 @@
       <c r="D22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>35</v>
       </c>
       <c r="F22" s="37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G22" s="36">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="37">
         <v>11</v>
@@ -1941,48 +1947,71 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="39" t="s">
+      <c r="E24" s="37">
+        <v>34</v>
+      </c>
+      <c r="F24" s="37">
+        <v>11</v>
+      </c>
+      <c r="G24" s="36">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="40">
+      <c r="C25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="40">
         <v>35</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F25" s="41">
         <v>1</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G25" s="40">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="24" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="26">
+      <c r="C26" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="26">
         <v>27</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F26" s="26">
         <v>20</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G26" s="25">
         <v>205</v>
       </c>
     </row>
